--- a/Results/Classification/Control vs Atypical/Control 2 (0, 9, 3, 7, 4)/Atypical 0 (0, 7, 12, 8, 11)/NCDE_32nodes_Control_vs_Atypical_batchsize3_200maxITER_None_smoothing0_dropout0.0.xlsx
+++ b/Results/Classification/Control vs Atypical/Control 2 (0, 9, 3, 7, 4)/Atypical 0 (0, 7, 12, 8, 11)/NCDE_32nodes_Control_vs_Atypical_batchsize3_200maxITER_None_smoothing0_dropout0.0.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2.291931678514838E-38</v>
+        <v>0.08513380217814247</v>
       </c>
       <c r="E2">
-        <v>2.291931678514838E-38</v>
+        <v>0.08513380217814247</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.4205986492282449</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.4205986492282449</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.8194362898292942</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8194362898292942</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.4904466957091531</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.4904466957091531</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1085483803470201</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.1085483803470201</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.07459593390281857</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.9254040660971814</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.4277093061739183</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.5722906938260817</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.6682604480051199</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.3317395519948801</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.5705164301900247</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.4294835698099753</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3155920684447934</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.6844079315552066</v>
       </c>
       <c r="F11">
-        <v>54.24599456787109</v>
+        <v>0.869810938835144</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.08391905908028191</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.08391905908028191</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.1810007622017242</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.1810007622017242</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -630,13 +630,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.9196271373364906</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.9196271373364906</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -644,13 +644,13 @@
         <v>9</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.6225750000391651</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.6225750000391651</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.03651048164369296</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.03651048164369296</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.706949785070749E-31</v>
+        <v>0.1995863608717966</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.8004136391282034</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.4682641715584517</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.5317358284415483</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.796525482954875</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.203474517045125</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.7103567116998867</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.2896432883001133</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.2333063837129989</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.7666936162870011</v>
       </c>
       <c r="F21">
-        <v>68.96177673339844</v>
+        <v>0.8215096592903137</v>
       </c>
       <c r="G21">
         <v>0.5</v>
